--- a/20 開発資料/05.改修管理/000_WBS_変更管理.xlsx
+++ b/20 開発資料/05.改修管理/000_WBS_変更管理.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -461,6 +461,19 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(タクチケテーブルに精算番号を追加)</t>
+    <rPh sb="10" eb="12">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2143,39 +2156,11 @@
     <cellStyle name="良い 2" xfId="128"/>
     <cellStyle name="良い 3" xfId="129"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="43">
     <dxf>
       <fill>
         <patternFill>
           <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2854,10 +2839,10 @@
   <dimension ref="A1:BN56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="4" topLeftCell="M23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9672,7 +9657,9 @@
     </row>
     <row r="30" spans="1:66" ht="20.25" customHeight="1">
       <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="28"/>
@@ -16106,6 +16093,19 @@
   </sheetData>
   <autoFilter ref="A4:J56"/>
   <mergeCells count="29">
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="A2:H2"/>
@@ -16122,202 +16122,189 @@
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="M55:HJ56 M25:HJ30 M5:HJ10 M13:HJ22">
-    <cfRule type="expression" dxfId="46" priority="403" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="403" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="589" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="589" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="590" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="590" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:J9 A27:D28 F27:J27 A10:F10 H10:J10 F55:J55 F28 H28:J28 A14:F14 H14:J14 F56 H56:J56 A13:J13 A55:D56">
-    <cfRule type="expression" dxfId="43" priority="640" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="640" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:HJ2">
-    <cfRule type="cellIs" dxfId="42" priority="636" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="636" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:HJ4">
-    <cfRule type="cellIs" dxfId="41" priority="637" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="637" stopIfTrue="1" operator="equal">
       <formula>"土"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="638" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="638" stopIfTrue="1" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="639" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="639" stopIfTrue="1" operator="equal">
       <formula>"休"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:BN3">
-    <cfRule type="cellIs" dxfId="38" priority="404" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="404" stopIfTrue="1" operator="equal">
       <formula>$I$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E28 E55:E56">
-    <cfRule type="expression" dxfId="37" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="146" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:J29 A17:D18 F17:J17 A30:F30 H30:J30 F18 H18:J18 A16:F16 H16:J16 A15:J15">
-    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="39" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="expression" dxfId="35" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="35" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:HJ24">
-    <cfRule type="expression" dxfId="34" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="32" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="33" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:J21 A23:D24 F23:J23 A22:F22 H22:J22 F24 H24:J24 A20:F20 H20:J20 A19:J19">
-    <cfRule type="expression" dxfId="31" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="34" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E24">
-    <cfRule type="expression" dxfId="30" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:J7 A5:D6 F5:J5 A8:F8 H8:J8 F6 H6:J6 A26:F26 H26:J26 A25:J25">
-    <cfRule type="expression" dxfId="29" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E6">
-    <cfRule type="expression" dxfId="28" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31:HJ36">
-    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:J31 A35:D36 F35:J35 A32:F32 H32:J32 F36 H36:J36 A34:F34 H34:J34 A33:J33">
-    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:E36">
-    <cfRule type="expression" dxfId="23" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37:HJ42">
-    <cfRule type="expression" dxfId="22" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="16" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:J37 A41:D42 F41:J41 A38:F38 H38:J38 F42 H42:J42 A40:F40 H40:J40 A39:J39">
-    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="19" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E42">
-    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43:HJ48">
-    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:J43 A47:D48 F47:J47 A44:F44 H44:J44 F48 H48:J48 A46:F46 H46:J46 A45:J45">
-    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E48">
-    <cfRule type="expression" dxfId="13" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:HJ54">
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:J49 A53:D54 F53:J53 A50:F50 H50:J50 F54 H54:J54 A52:F52 H52:J52 A51:J51">
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E54">
-    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:HJ12">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:J11 A12:F12 H12:J12">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/20 開発資料/05.改修管理/000_WBS_変更管理.xlsx
+++ b/20 開発資料/05.改修管理/000_WBS_変更管理.xlsx
@@ -465,14 +465,20 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(タクチケテーブルに精算番号を追加)</t>
+    <t>(タクチケテーブルに精算番号、スキャンデータ取込日を追加)</t>
     <rPh sb="10" eb="12">
       <t>セイサン</t>
     </rPh>
     <rPh sb="12" eb="14">
       <t>バンゴウ</t>
     </rPh>
-    <rPh sb="15" eb="17">
+    <rPh sb="22" eb="24">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1831,7 +1837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2022,6 +2028,15 @@
     </xf>
     <xf numFmtId="180" fontId="43" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="130">
@@ -2839,10 +2854,10 @@
   <dimension ref="A1:BN56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="4" topLeftCell="M23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="4" topLeftCell="M26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9655,15 +9670,15 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:66" ht="20.25" customHeight="1">
+    <row r="30" spans="1:66" ht="17.25" customHeight="1">
       <c r="A30" s="15"/>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="59"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
@@ -16092,21 +16107,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:J56"/>
-  <mergeCells count="29">
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G11:G12"/>
+  <mergeCells count="30">
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -16122,6 +16123,21 @@
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="M55:HJ56 M25:HJ30 M5:HJ10 M13:HJ22">
@@ -16167,7 +16183,7 @@
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:J29 A17:D18 F17:J17 A30:F30 H30:J30 F18 H18:J18 A16:F16 H16:J16 A15:J15">
+  <conditionalFormatting sqref="A29:J29 A17:D18 F17:J17 A30:B30 H30:J30 F18 H18:J18 A16:F16 H16:J16 A15:J15">
     <cfRule type="expression" dxfId="32" priority="39" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>

--- a/20 開発資料/05.改修管理/000_WBS_変更管理.xlsx
+++ b/20 開発資料/05.改修管理/000_WBS_変更管理.xlsx
@@ -11,8 +11,8 @@
     <sheet name="休日" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ＷＢＳ!$A$4:$J$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ＷＢＳ!$A$1:$BN$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ＷＢＳ!$A$4:$J$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ＷＢＳ!$A$1:$BN$44</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ＷＢＳ!$A:$J,ＷＢＳ!$2:$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -539,6 +539,13 @@
   </si>
   <si>
     <t>VM バックアップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(1/14受領)</t>
+    <rPh sb="5" eb="7">
+      <t>ジュリョウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1026,7 +1033,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1495,17 +1502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -1895,7 +1891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2009,9 +2005,6 @@
     <xf numFmtId="178" fontId="45" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="45" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2030,9 +2023,6 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2045,10 +2035,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="43" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2069,21 +2056,21 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="179" fontId="43" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="43" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="43" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="180" fontId="43" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2095,6 +2082,12 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="45" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="130">
@@ -2229,7 +2222,7 @@
     <cellStyle name="良い 2" xfId="128"/>
     <cellStyle name="良い 3" xfId="129"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="82">
     <dxf>
       <fill>
         <patternFill>
@@ -2254,14 +2247,91 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor indexed="22"/>
+          <bgColor indexed="41"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2647,14 +2717,98 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor indexed="22"/>
+          <bgColor indexed="41"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3021,13 +3175,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN60"/>
+  <dimension ref="A1:BN44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="12" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
+      <selection pane="bottomRight" activeCell="AQ9" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -3042,11 +3196,11 @@
     <col min="11" max="11" width="9.5" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="0.125" style="2" customWidth="1"/>
     <col min="13" max="66" width="2.125" style="3" customWidth="1"/>
-    <col min="67" max="16384" width="9" style="50"/>
+    <col min="67" max="16384" width="9" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="49" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A1" s="45"/>
+    <row r="1" spans="1:66" s="47" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A1" s="44"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3054,10 +3208,10 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="64">
+      <c r="I1" s="61">
         <v>41645</v>
       </c>
-      <c r="J1" s="64"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
@@ -3115,20 +3269,20 @@
       <c r="BM1" s="3"/>
       <c r="BN1" s="3"/>
     </row>
-    <row r="2" spans="1:66" s="49" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62">
+    <row r="2" spans="1:66" s="47" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59">
         <f ca="1">TODAY()</f>
-        <v>41653</v>
-      </c>
-      <c r="J2" s="63"/>
+        <v>41654</v>
+      </c>
+      <c r="J2" s="60"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4">
         <v>1</v>
@@ -3338,12 +3492,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="BN2" s="52" t="str">
+      <c r="BN2" s="49" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:66" s="49" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:66" s="47" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -3357,13 +3511,13 @@
       <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="39" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="8"/>
@@ -3583,12 +3737,12 @@
         <f t="shared" si="3"/>
         <v>41697</v>
       </c>
-      <c r="BN3" s="53">
+      <c r="BN3" s="50">
         <f t="shared" si="3"/>
         <v>41698</v>
       </c>
     </row>
-    <row r="4" spans="1:66" s="49" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:66" s="47" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
@@ -3602,13 +3756,13 @@
       <c r="I4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="20">
         <f ca="1">TODAY()</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="M4" s="21" t="str">
         <f>IF(ISERROR(VLOOKUP(M3,休日!$A$1:$A$9,1,FALSE)),MID("日月火水木金土",WEEKDAY(M3),1),"休")</f>
@@ -3822,13 +3976,13 @@
         <f>IF(ISERROR(VLOOKUP(BM3,休日!$A$1:$A$9,1,FALSE)),MID("日月火水木金土",WEEKDAY(BM3),1),"休")</f>
         <v>木</v>
       </c>
-      <c r="BN4" s="54" t="str">
+      <c r="BN4" s="51" t="str">
         <f>IF(ISERROR(VLOOKUP(BN3,休日!$A$1:$A$9,1,FALSE)),MID("日月火水木金土",WEEKDAY(BN3),1),"休")</f>
         <v>金</v>
       </c>
     </row>
     <row r="5" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="54" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3838,22 +3992,26 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="24"/>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="44">
+      <c r="H5" s="37">
+        <v>41653</v>
+      </c>
+      <c r="I5" s="34">
+        <v>41663</v>
+      </c>
+      <c r="J5" s="43">
         <f>COUNTIF(M5:BN5,"■")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K5" s="25">
         <f>IF(ISBLANK(H5),H5,IF(ISBLANK(I5),INT(H5-1+(#REF!-#REF!+1)*J5),I5))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="L5" s="25">
         <f>IF(ISBLANK(H5),H5,IF(ISBLANK(I5),H5+#REF!-#REF!,I5))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="M5" s="26" t="str">
         <f t="shared" ref="M5:V8" si="4">IF(AND(M$3&gt;=$H5,M$3&lt;=$K5),IF(ISERROR(FIND(M$4,"土日休")),"■","◇"),IF(AND(M$3&gt;=$H5,M$3&lt;=$L5),IF(ISERROR(FIND(M$4,"土日休")),"□","□"),""))</f>
@@ -3889,47 +4047,47 @@
       </c>
       <c r="U5" s="27" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="V5" s="27" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="W5" s="27" t="str">
         <f t="shared" ref="W5:AF8" si="5">IF(AND(W$3&gt;=$H5,W$3&lt;=$K5),IF(ISERROR(FIND(W$4,"土日休")),"■","◇"),IF(AND(W$3&gt;=$H5,W$3&lt;=$L5),IF(ISERROR(FIND(W$4,"土日休")),"□","□"),""))</f>
-        <v/>
+        <v>■</v>
       </c>
       <c r="X5" s="27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="Y5" s="27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="Z5" s="27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="AA5" s="27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AB5" s="27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AC5" s="27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AD5" s="27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AE5" s="27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AF5" s="27" t="str">
         <f t="shared" si="5"/>
@@ -4067,7 +4225,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BN5" s="55" t="str">
+      <c r="BN5" s="52" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -4078,11 +4236,11 @@
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="59"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="35"/>
       <c r="I6" s="38"/>
-      <c r="J6" s="43"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="30">
         <f>IF(ISBLANK(H6),H6,IF(ISBLANK(I6),INT(H6-1+(I5-H5+1)*J6),I6))</f>
         <v>0</v>
@@ -4303,13 +4461,13 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BN6" s="56" t="str">
+      <c r="BN6" s="53" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="54" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4319,22 +4477,26 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="42">
+      <c r="H7" s="37">
+        <v>41653</v>
+      </c>
+      <c r="I7" s="34">
+        <v>41663</v>
+      </c>
+      <c r="J7" s="41">
         <f>COUNTIF(M7:BN7,"■")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K7" s="25">
         <f>IF(ISBLANK(H7),H7,IF(ISBLANK(I7),INT(H7-1+(#REF!-#REF!+1)*J7),I7))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="L7" s="25">
         <f>IF(ISBLANK(H7),H7,IF(ISBLANK(I7),H7+#REF!-#REF!,I7))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="M7" s="26" t="str">
         <f t="shared" si="4"/>
@@ -4370,47 +4532,47 @@
       </c>
       <c r="U7" s="27" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="V7" s="27" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="W7" s="27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="X7" s="27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="Y7" s="27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="Z7" s="27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="AA7" s="27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AB7" s="27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AC7" s="27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AD7" s="27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AE7" s="27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AF7" s="27" t="str">
         <f t="shared" si="5"/>
@@ -4548,7 +4710,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BN7" s="55" t="str">
+      <c r="BN7" s="52" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -4560,10 +4722,10 @@
       <c r="D8" s="17"/>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="59"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="43"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="30">
         <f>IF(ISBLANK(H8),H8,IF(ISBLANK(I8),INT(H8-1+(I7-H7+1)*J8),I8))</f>
         <v>0</v>
@@ -4784,13 +4946,13 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BN8" s="56" t="str">
+      <c r="BN8" s="53" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -4800,22 +4962,26 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="42">
+      <c r="H9" s="37">
+        <v>41653</v>
+      </c>
+      <c r="I9" s="34">
+        <v>41663</v>
+      </c>
+      <c r="J9" s="41">
         <f>COUNTIF(M9:BN9,"■")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K9" s="25">
         <f>IF(ISBLANK(H9),H9,IF(ISBLANK(I9),INT(H9-1+(#REF!-#REF!+1)*J9),I9))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="L9" s="25">
         <f>IF(ISBLANK(H9),H9,IF(ISBLANK(I9),H9+#REF!-#REF!,I9))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="M9" s="26" t="str">
         <f t="shared" ref="M9:AB12" si="9">IF(AND(M$3&gt;=$H9,M$3&lt;=$K9),IF(ISERROR(FIND(M$4,"土日休")),"■","◇"),IF(AND(M$3&gt;=$H9,M$3&lt;=$L9),IF(ISERROR(FIND(M$4,"土日休")),"□","□"),""))</f>
@@ -4851,47 +5017,47 @@
       </c>
       <c r="U9" s="27" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="V9" s="27" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="W9" s="27" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="X9" s="27" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="Y9" s="27" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="Z9" s="27" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="AA9" s="27" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AB9" s="27" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AC9" s="27" t="str">
         <f t="shared" ref="AC9:AR12" si="10">IF(AND(AC$3&gt;=$H9,AC$3&lt;=$K9),IF(ISERROR(FIND(AC$4,"土日休")),"■","◇"),IF(AND(AC$3&gt;=$H9,AC$3&lt;=$L9),IF(ISERROR(FIND(AC$4,"土日休")),"□","□"),""))</f>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AD9" s="27" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AE9" s="27" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AF9" s="27" t="str">
         <f t="shared" si="10"/>
@@ -5029,7 +5195,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BN9" s="55" t="str">
+      <c r="BN9" s="52" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -5041,10 +5207,10 @@
       <c r="D10" s="17"/>
       <c r="E10" s="28"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="43"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="30">
         <f>IF(ISBLANK(H10),H10,IF(ISBLANK(I10),INT(H10-1+(I9-H9+1)*J10),I10))</f>
         <v>0</v>
@@ -5265,13 +5431,13 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BN10" s="56" t="str">
+      <c r="BN10" s="53" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="54" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -5281,22 +5447,26 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="42">
+      <c r="H11" s="37">
+        <v>41653</v>
+      </c>
+      <c r="I11" s="34">
+        <v>41663</v>
+      </c>
+      <c r="J11" s="41">
         <f>COUNTIF(M11:BN11,"■")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K11" s="25">
         <f>IF(ISBLANK(H11),H11,IF(ISBLANK(I11),INT(H11-1+(#REF!-#REF!+1)*J11),I11))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="L11" s="25">
         <f>IF(ISBLANK(H11),H11,IF(ISBLANK(I11),H11+#REF!-#REF!,I11))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="M11" s="26" t="str">
         <f t="shared" si="9"/>
@@ -5332,47 +5502,47 @@
       </c>
       <c r="U11" s="27" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="V11" s="27" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="W11" s="27" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="X11" s="27" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="Y11" s="27" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="Z11" s="27" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="AA11" s="27" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AB11" s="27" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AC11" s="27" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AD11" s="27" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AE11" s="27" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AF11" s="27" t="str">
         <f t="shared" si="10"/>
@@ -5510,7 +5680,7 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BN11" s="55" t="str">
+      <c r="BN11" s="52" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -5522,10 +5692,10 @@
       <c r="D12" s="17"/>
       <c r="E12" s="28"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="59"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="43"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="30">
         <f>IF(ISBLANK(H12),H12,IF(ISBLANK(I12),INT(H12-1+(I11-H11+1)*J12),I12))</f>
         <v>0</v>
@@ -5746,13 +5916,13 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BN12" s="56" t="str">
+      <c r="BN12" s="53" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="54" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -5762,22 +5932,26 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="44">
+      <c r="H13" s="37">
+        <v>41653</v>
+      </c>
+      <c r="I13" s="34">
+        <v>41663</v>
+      </c>
+      <c r="J13" s="43">
         <f>COUNTIF(M13:BN13,"■")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K13" s="25">
         <f>IF(ISBLANK(H13),H13,IF(ISBLANK(I13),INT(H13-1+(#REF!-#REF!+1)*J13),I13))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="L13" s="25">
         <f>IF(ISBLANK(H13),H13,IF(ISBLANK(I13),H13+#REF!-#REF!,I13))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="M13" s="26" t="str">
         <f t="shared" ref="M13:AB14" si="13">IF(AND(M$3&gt;=$H13,M$3&lt;=$K13),IF(ISERROR(FIND(M$4,"土日休")),"■","◇"),IF(AND(M$3&gt;=$H13,M$3&lt;=$L13),IF(ISERROR(FIND(M$4,"土日休")),"□","□"),""))</f>
@@ -5813,47 +5987,47 @@
       </c>
       <c r="U13" s="27" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="V13" s="27" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="W13" s="27" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="X13" s="27" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="Y13" s="27" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="Z13" s="27" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="AA13" s="27" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AB13" s="27" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AC13" s="27" t="str">
         <f t="shared" ref="AC13:AF14" si="14">IF(AND(AC$3&gt;=$H13,AC$3&lt;=$K13),IF(ISERROR(FIND(AC$4,"土日休")),"■","◇"),IF(AND(AC$3&gt;=$H13,AC$3&lt;=$L13),IF(ISERROR(FIND(AC$4,"土日休")),"□","□"),""))</f>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AD13" s="27" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AE13" s="27" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AF13" s="27" t="str">
         <f t="shared" si="14"/>
@@ -5991,7 +6165,7 @@
         <f t="shared" ref="BM13:BN14" si="19">IF(AND(BM$3&gt;=$H13,BM$3&lt;=$K13),IF(ISERROR(FIND(BM$4,"土日休")),"■","◇"),IF(AND(BM$3&gt;=$H13,BM$3&lt;=$L13),IF(ISERROR(FIND(BM$4,"土日休")),"□","□"),""))</f>
         <v/>
       </c>
-      <c r="BN13" s="55" t="str">
+      <c r="BN13" s="52" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
@@ -6003,10 +6177,10 @@
       <c r="D14" s="17"/>
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="59"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="36"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="43"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="30">
         <f>IF(ISBLANK(H14),H14,IF(ISBLANK(I14),INT(H14-1+(I13-H13+1)*J14),I14))</f>
         <v>0</v>
@@ -6227,13 +6401,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BN14" s="56" t="str">
+      <c r="BN14" s="53" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="54" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -6243,25 +6417,29 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="44">
+      <c r="H15" s="37">
+        <v>41653</v>
+      </c>
+      <c r="I15" s="34">
+        <v>41663</v>
+      </c>
+      <c r="J15" s="43">
         <f>COUNTIF(M15:BN15,"■")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K15" s="25">
         <f>IF(ISBLANK(H15),H15,IF(ISBLANK(I15),INT(H15-1+(#REF!-#REF!+1)*J15),I15))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="L15" s="25">
         <f>IF(ISBLANK(H15),H15,IF(ISBLANK(I15),H15+#REF!-#REF!,I15))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="M15" s="26" t="str">
-        <f t="shared" ref="M15:AB60" si="20">IF(AND(M$3&gt;=$H15,M$3&lt;=$K15),IF(ISERROR(FIND(M$4,"土日休")),"■","◇"),IF(AND(M$3&gt;=$H15,M$3&lt;=$L15),IF(ISERROR(FIND(M$4,"土日休")),"□","□"),""))</f>
+        <f t="shared" ref="M15:AB36" si="20">IF(AND(M$3&gt;=$H15,M$3&lt;=$K15),IF(ISERROR(FIND(M$4,"土日休")),"■","◇"),IF(AND(M$3&gt;=$H15,M$3&lt;=$L15),IF(ISERROR(FIND(M$4,"土日休")),"□","□"),""))</f>
         <v/>
       </c>
       <c r="N15" s="27" t="str">
@@ -6294,47 +6472,47 @@
       </c>
       <c r="U15" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="V15" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="W15" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="X15" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="Y15" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="Z15" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="AA15" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AB15" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AC15" s="27" t="str">
-        <f t="shared" ref="AC15:AR60" si="21">IF(AND(AC$3&gt;=$H15,AC$3&lt;=$K15),IF(ISERROR(FIND(AC$4,"土日休")),"■","◇"),IF(AND(AC$3&gt;=$H15,AC$3&lt;=$L15),IF(ISERROR(FIND(AC$4,"土日休")),"□","□"),""))</f>
-        <v/>
+        <f t="shared" ref="AC15:AR36" si="21">IF(AND(AC$3&gt;=$H15,AC$3&lt;=$K15),IF(ISERROR(FIND(AC$4,"土日休")),"■","◇"),IF(AND(AC$3&gt;=$H15,AC$3&lt;=$L15),IF(ISERROR(FIND(AC$4,"土日休")),"□","□"),""))</f>
+        <v>■</v>
       </c>
       <c r="AD15" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AE15" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AF15" s="27" t="str">
         <f t="shared" si="21"/>
@@ -6389,7 +6567,7 @@
         <v/>
       </c>
       <c r="AS15" s="27" t="str">
-        <f t="shared" ref="AR15:BG60" si="22">IF(AND(AS$3&gt;=$H15,AS$3&lt;=$K15),IF(ISERROR(FIND(AS$4,"土日休")),"■","◇"),IF(AND(AS$3&gt;=$H15,AS$3&lt;=$L15),IF(ISERROR(FIND(AS$4,"土日休")),"□","□"),""))</f>
+        <f t="shared" ref="AR15:BG33" si="22">IF(AND(AS$3&gt;=$H15,AS$3&lt;=$K15),IF(ISERROR(FIND(AS$4,"土日休")),"■","◇"),IF(AND(AS$3&gt;=$H15,AS$3&lt;=$L15),IF(ISERROR(FIND(AS$4,"土日休")),"□","□"),""))</f>
         <v/>
       </c>
       <c r="AT15" s="27" t="str">
@@ -6449,7 +6627,7 @@
         <v/>
       </c>
       <c r="BH15" s="27" t="str">
-        <f t="shared" ref="AY15:BN60" si="23">IF(AND(BH$3&gt;=$H15,BH$3&lt;=$K15),IF(ISERROR(FIND(BH$4,"土日休")),"■","◇"),IF(AND(BH$3&gt;=$H15,BH$3&lt;=$L15),IF(ISERROR(FIND(BH$4,"土日休")),"□","□"),""))</f>
+        <f t="shared" ref="AY15:BN36" si="23">IF(AND(BH$3&gt;=$H15,BH$3&lt;=$K15),IF(ISERROR(FIND(BH$4,"土日休")),"■","◇"),IF(AND(BH$3&gt;=$H15,BH$3&lt;=$L15),IF(ISERROR(FIND(BH$4,"土日休")),"□","□"),""))</f>
         <v/>
       </c>
       <c r="BI15" s="27" t="str">
@@ -6472,7 +6650,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN15" s="55" t="str">
+      <c r="BN15" s="52" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -6484,10 +6662,10 @@
       <c r="D16" s="17"/>
       <c r="E16" s="28"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="59"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="36"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="43"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="30">
         <f>IF(ISBLANK(H16),H16,IF(ISBLANK(I16),INT(H16-1+(I15-H15+1)*J16),I16))</f>
         <v>0</v>
@@ -6708,13 +6886,13 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN16" s="56" t="str">
+      <c r="BN16" s="53" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="54" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -6724,22 +6902,26 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="44">
+      <c r="H17" s="37">
+        <v>41653</v>
+      </c>
+      <c r="I17" s="34">
+        <v>41663</v>
+      </c>
+      <c r="J17" s="43">
         <f>COUNTIF(M17:BN17,"■")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K17" s="25">
         <f>IF(ISBLANK(H17),H17,IF(ISBLANK(I17),INT(H17-1+(#REF!-#REF!+1)*J17),I17))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="L17" s="25">
         <f>IF(ISBLANK(H17),H17,IF(ISBLANK(I17),H17+#REF!-#REF!,I17))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="M17" s="26" t="str">
         <f t="shared" si="20"/>
@@ -6775,47 +6957,47 @@
       </c>
       <c r="U17" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="V17" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="W17" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="X17" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="Y17" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="Z17" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="AA17" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AB17" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AC17" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AD17" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AE17" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AF17" s="27" t="str">
         <f t="shared" si="21"/>
@@ -6953,7 +7135,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN17" s="55" t="str">
+      <c r="BN17" s="52" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -6964,11 +7146,11 @@
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="59"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="35"/>
       <c r="I18" s="38"/>
-      <c r="J18" s="43"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="30">
         <f>IF(ISBLANK(H18),H18,IF(ISBLANK(I18),INT(H18-1+(I17-H17+1)*J18),I18))</f>
         <v>0</v>
@@ -7189,13 +7371,13 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN18" s="56" t="str">
+      <c r="BN18" s="53" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="54" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -7205,22 +7387,26 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="44">
+      <c r="H19" s="37">
+        <v>41653</v>
+      </c>
+      <c r="I19" s="34">
+        <v>41663</v>
+      </c>
+      <c r="J19" s="43">
         <f>COUNTIF(M19:BN19,"■")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K19" s="25">
         <f>IF(ISBLANK(H19),H19,IF(ISBLANK(I19),INT(H19-1+(#REF!-#REF!+1)*J19),I19))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="L19" s="25">
         <f>IF(ISBLANK(H19),H19,IF(ISBLANK(I19),H19+#REF!-#REF!,I19))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="M19" s="26" t="str">
         <f t="shared" si="20"/>
@@ -7256,47 +7442,47 @@
       </c>
       <c r="U19" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="V19" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="W19" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="X19" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="Y19" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="Z19" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="AA19" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AB19" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AC19" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AD19" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AE19" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AF19" s="27" t="str">
         <f t="shared" si="21"/>
@@ -7434,7 +7620,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN19" s="55" t="str">
+      <c r="BN19" s="52" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -7446,10 +7632,10 @@
       <c r="D20" s="17"/>
       <c r="E20" s="28"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="59"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="43"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="30">
         <f>IF(ISBLANK(H20),H20,IF(ISBLANK(I20),INT(H20-1+(I19-H19+1)*J20),I20))</f>
         <v>0</v>
@@ -7670,13 +7856,13 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN20" s="56" t="str">
+      <c r="BN20" s="53" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="54" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -7686,22 +7872,26 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="42">
+      <c r="H21" s="37">
+        <v>41653</v>
+      </c>
+      <c r="I21" s="34">
+        <v>41663</v>
+      </c>
+      <c r="J21" s="41">
         <f>COUNTIF(M21:BN21,"■")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K21" s="25">
         <f>IF(ISBLANK(H21),H21,IF(ISBLANK(I21),INT(H21-1+(#REF!-#REF!+1)*J21),I21))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="L21" s="25">
         <f>IF(ISBLANK(H21),H21,IF(ISBLANK(I21),H21+#REF!-#REF!,I21))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="M21" s="26" t="str">
         <f t="shared" ref="M21:AA22" si="24">IF(AND(M$3&gt;=$H21,M$3&lt;=$K21),IF(ISERROR(FIND(M$4,"土日休")),"■","◇"),IF(AND(M$3&gt;=$H21,M$3&lt;=$L21),IF(ISERROR(FIND(M$4,"土日休")),"□","□"),""))</f>
@@ -7737,47 +7927,47 @@
       </c>
       <c r="U21" s="27" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="V21" s="27" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="W21" s="27" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="X21" s="27" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="Y21" s="27" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="Z21" s="27" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="AA21" s="27" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AB21" s="27" t="str">
         <f>IF(AND(AB$3&gt;=$H21,AB$3&lt;=$K21),IF(ISERROR(FIND(AB$4,"土日休")),"■","◇"),IF(AND(AB$3&gt;=$H21,AB$3&lt;=$L21),IF(ISERROR(FIND(AB$4,"土日休")),"□","□"),""))</f>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AC21" s="27" t="str">
         <f t="shared" ref="AC21:AL22" si="25">IF(AND(AC$3&gt;=$H21,AC$3&lt;=$K21),IF(ISERROR(FIND(AC$4,"土日休")),"■","◇"),IF(AND(AC$3&gt;=$H21,AC$3&lt;=$L21),IF(ISERROR(FIND(AC$4,"土日休")),"□","□"),""))</f>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AD21" s="27" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AE21" s="27" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AF21" s="27" t="str">
         <f t="shared" si="25"/>
@@ -7915,7 +8105,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN21" s="55" t="str">
+      <c r="BN21" s="52" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -7927,10 +8117,10 @@
       <c r="D22" s="17"/>
       <c r="E22" s="28"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="59"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
-      <c r="J22" s="43"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="30">
         <f>IF(ISBLANK(H22),H22,IF(ISBLANK(I22),INT(H22-1+(I21-H21+1)*J22),I22))</f>
         <v>0</v>
@@ -8151,13 +8341,13 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN22" s="56" t="str">
+      <c r="BN22" s="53" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="54" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -8167,22 +8357,26 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="24"/>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="44">
+      <c r="H23" s="37">
+        <v>41653</v>
+      </c>
+      <c r="I23" s="34">
+        <v>41663</v>
+      </c>
+      <c r="J23" s="43">
         <f>COUNTIF(M23:BN23,"■")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K23" s="25">
         <f>IF(ISBLANK(H23),H23,IF(ISBLANK(I23),INT(H23-1+(#REF!-#REF!+1)*J23),I23))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="L23" s="25">
         <f>IF(ISBLANK(H23),H23,IF(ISBLANK(I23),H23+#REF!-#REF!,I23))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="M23" s="26" t="str">
         <f t="shared" si="20"/>
@@ -8218,47 +8412,47 @@
       </c>
       <c r="U23" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="V23" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="W23" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="X23" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="Y23" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="Z23" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="AA23" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AB23" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AC23" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AD23" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AE23" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AF23" s="27" t="str">
         <f t="shared" si="21"/>
@@ -8396,7 +8590,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN23" s="55" t="str">
+      <c r="BN23" s="52" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -8407,11 +8601,11 @@
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="59"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="35"/>
       <c r="I24" s="38"/>
-      <c r="J24" s="43"/>
+      <c r="J24" s="42"/>
       <c r="K24" s="30">
         <f>IF(ISBLANK(H24),H24,IF(ISBLANK(I24),INT(H24-1+(I23-H23+1)*J24),I24))</f>
         <v>0</v>
@@ -8632,13 +8826,13 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN24" s="56" t="str">
+      <c r="BN24" s="53" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -8648,22 +8842,26 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="58" t="s">
+      <c r="G25" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="44">
+      <c r="H25" s="37">
+        <v>41653</v>
+      </c>
+      <c r="I25" s="34">
+        <v>41663</v>
+      </c>
+      <c r="J25" s="43">
         <f>COUNTIF(M25:BN25,"■")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K25" s="25">
         <f>IF(ISBLANK(H25),H25,IF(ISBLANK(I25),INT(H25-1+(#REF!-#REF!+1)*J25),I25))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="L25" s="25">
         <f>IF(ISBLANK(H25),H25,IF(ISBLANK(I25),H25+#REF!-#REF!,I25))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="M25" s="26" t="str">
         <f t="shared" ref="M25:V36" si="26">IF(AND(M$3&gt;=$H25,M$3&lt;=$K25),IF(ISERROR(FIND(M$4,"土日休")),"■","◇"),IF(AND(M$3&gt;=$H25,M$3&lt;=$L25),IF(ISERROR(FIND(M$4,"土日休")),"□","□"),""))</f>
@@ -8699,47 +8897,47 @@
       </c>
       <c r="U25" s="27" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="V25" s="27" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="W25" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="X25" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="Y25" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="Z25" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="AA25" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AB25" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AC25" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AD25" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AE25" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AF25" s="27" t="str">
         <f t="shared" si="21"/>
@@ -8877,7 +9075,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN25" s="55" t="str">
+      <c r="BN25" s="52" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -8889,10 +9087,10 @@
       <c r="D26" s="17"/>
       <c r="E26" s="28"/>
       <c r="F26" s="29"/>
-      <c r="G26" s="59"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="36"/>
       <c r="I26" s="35"/>
-      <c r="J26" s="43"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="30">
         <f>IF(ISBLANK(H26),H26,IF(ISBLANK(I26),INT(H26-1+(I25-H25+1)*J26),I26))</f>
         <v>0</v>
@@ -9113,13 +9311,13 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN26" s="56" t="str">
+      <c r="BN26" s="53" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="54" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -9129,20 +9327,24 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="44">
+      <c r="G27" s="55"/>
+      <c r="H27" s="37">
+        <v>41653</v>
+      </c>
+      <c r="I27" s="34">
+        <v>41663</v>
+      </c>
+      <c r="J27" s="43">
         <f>COUNTIF(M27:BN27,"■")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K27" s="25">
         <f>IF(ISBLANK(H27),H27,IF(ISBLANK(I27),INT(H27-1+(#REF!-#REF!+1)*J27),I27))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="L27" s="25">
         <f>IF(ISBLANK(H27),H27,IF(ISBLANK(I27),H27+#REF!-#REF!,I27))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="M27" s="26" t="str">
         <f t="shared" si="26"/>
@@ -9178,47 +9380,47 @@
       </c>
       <c r="U27" s="27" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="V27" s="27" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="W27" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="X27" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="Y27" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="Z27" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="AA27" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AB27" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AC27" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AD27" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AE27" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AF27" s="27" t="str">
         <f t="shared" si="21"/>
@@ -9356,7 +9558,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN27" s="55" t="str">
+      <c r="BN27" s="52" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -9367,11 +9569,11 @@
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="59"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="56"/>
       <c r="H28" s="35"/>
       <c r="I28" s="38"/>
-      <c r="J28" s="43"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="30">
         <f>IF(ISBLANK(H28),H28,IF(ISBLANK(I28),INT(H28-1+(I27-H27+1)*J28),I28))</f>
         <v>0</v>
@@ -9592,13 +9794,13 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN28" s="56" t="str">
+      <c r="BN28" s="53" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="54" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -9608,20 +9810,24 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="42">
+      <c r="G29" s="55"/>
+      <c r="H29" s="37">
+        <v>41653</v>
+      </c>
+      <c r="I29" s="34">
+        <v>41663</v>
+      </c>
+      <c r="J29" s="41">
         <f>COUNTIF(M29:BN29,"■")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K29" s="25">
         <f>IF(ISBLANK(H29),H29,IF(ISBLANK(I29),INT(H29-1+(#REF!-#REF!+1)*J29),I29))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="L29" s="25">
         <f>IF(ISBLANK(H29),H29,IF(ISBLANK(I29),H29+#REF!-#REF!,I29))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="M29" s="26" t="str">
         <f t="shared" si="26"/>
@@ -9657,47 +9863,47 @@
       </c>
       <c r="U29" s="27" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="V29" s="27" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="W29" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="X29" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="Y29" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="Z29" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="AA29" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AB29" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AC29" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AD29" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AE29" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AF29" s="27" t="str">
         <f t="shared" si="21"/>
@@ -9835,24 +10041,24 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN29" s="55" t="str">
+      <c r="BN29" s="52" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:66" ht="17.25" customHeight="1">
       <c r="A30" s="15"/>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="59"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
-      <c r="J30" s="43"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="30">
         <f>IF(ISBLANK(H30),H30,IF(ISBLANK(I30),INT(H30-1+(I29-H29+1)*J30),I30))</f>
         <v>0</v>
@@ -10073,13 +10279,13 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN30" s="56" t="str">
+      <c r="BN30" s="53" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="54" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -10089,20 +10295,24 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="24"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="42">
+      <c r="G31" s="55"/>
+      <c r="H31" s="37">
+        <v>41653</v>
+      </c>
+      <c r="I31" s="34">
+        <v>41663</v>
+      </c>
+      <c r="J31" s="41">
         <f>COUNTIF(M31:BN31,"■")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K31" s="25">
         <f>IF(ISBLANK(H31),H31,IF(ISBLANK(I31),INT(H31-1+(#REF!-#REF!+1)*J31),I31))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="L31" s="25">
         <f>IF(ISBLANK(H31),H31,IF(ISBLANK(I31),H31+#REF!-#REF!,I31))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="M31" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10138,47 +10348,47 @@
       </c>
       <c r="U31" s="27" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="V31" s="27" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="W31" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="X31" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="Y31" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="Z31" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="AA31" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AB31" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AC31" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AD31" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AE31" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AF31" s="27" t="str">
         <f t="shared" si="21"/>
@@ -10316,7 +10526,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN31" s="55" t="str">
+      <c r="BN31" s="52" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -10328,10 +10538,10 @@
       <c r="D32" s="17"/>
       <c r="E32" s="28"/>
       <c r="F32" s="29"/>
-      <c r="G32" s="59"/>
+      <c r="G32" s="56"/>
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
-      <c r="J32" s="43"/>
+      <c r="J32" s="42"/>
       <c r="K32" s="30">
         <f>IF(ISBLANK(H32),H32,IF(ISBLANK(I32),INT(H32-1+(I31-H31+1)*J32),I32))</f>
         <v>0</v>
@@ -10552,13 +10762,13 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN32" s="56" t="str">
+      <c r="BN32" s="53" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="54" t="s">
         <v>48</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -10568,22 +10778,26 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="24"/>
-      <c r="G33" s="58" t="s">
+      <c r="G33" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="42">
+      <c r="H33" s="37">
+        <v>41653</v>
+      </c>
+      <c r="I33" s="34">
+        <v>41663</v>
+      </c>
+      <c r="J33" s="41">
         <f>COUNTIF(M33:BN33,"■")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K33" s="25">
         <f>IF(ISBLANK(H33),H33,IF(ISBLANK(I33),INT(H33-1+(#REF!-#REF!+1)*J33),I33))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="L33" s="25">
         <f>IF(ISBLANK(H33),H33,IF(ISBLANK(I33),H33+#REF!-#REF!,I33))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="M33" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10619,47 +10833,47 @@
       </c>
       <c r="U33" s="27" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="V33" s="27" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="W33" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="X33" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="Y33" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="Z33" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="AA33" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AB33" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AC33" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AD33" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AE33" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AF33" s="27" t="str">
         <f t="shared" si="21"/>
@@ -10726,7 +10940,7 @@
         <v/>
       </c>
       <c r="AV33" s="27" t="str">
-        <f t="shared" ref="AV33:BK35" si="27">IF(AND(AV$3&gt;=$H33,AV$3&lt;=$K33),IF(ISERROR(FIND(AV$4,"土日休")),"■","◇"),IF(AND(AV$3&gt;=$H33,AV$3&lt;=$L33),IF(ISERROR(FIND(AV$4,"土日休")),"□","□"),""))</f>
+        <f t="shared" ref="AV33:BG35" si="27">IF(AND(AV$3&gt;=$H33,AV$3&lt;=$K33),IF(ISERROR(FIND(AV$4,"土日休")),"■","◇"),IF(AND(AV$3&gt;=$H33,AV$3&lt;=$L33),IF(ISERROR(FIND(AV$4,"土日休")),"□","□"),""))</f>
         <v/>
       </c>
       <c r="AW33" s="27" t="str">
@@ -10797,7 +11011,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN33" s="55" t="str">
+      <c r="BN33" s="52" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -10809,10 +11023,10 @@
       <c r="D34" s="17"/>
       <c r="E34" s="28"/>
       <c r="F34" s="29"/>
-      <c r="G34" s="59"/>
+      <c r="G34" s="56"/>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
-      <c r="J34" s="43"/>
+      <c r="J34" s="42"/>
       <c r="K34" s="30">
         <f>IF(ISBLANK(H34),H34,IF(ISBLANK(I34),INT(H34-1+(I33-H33+1)*J34),I34))</f>
         <v>0</v>
@@ -10950,7 +11164,7 @@
         <v/>
       </c>
       <c r="AS34" s="32" t="str">
-        <f t="shared" ref="AS34:BH36" si="28">IF(AND(AS$3&gt;=$H34,AS$3&lt;=$K34),IF(ISERROR(FIND(AS$4,"土日休")),"■","◇"),IF(AND(AS$3&gt;=$H34,AS$3&lt;=$L34),IF(ISERROR(FIND(AS$4,"土日休")),"□","□"),""))</f>
+        <f t="shared" ref="AS34:BG36" si="28">IF(AND(AS$3&gt;=$H34,AS$3&lt;=$K34),IF(ISERROR(FIND(AS$4,"土日休")),"■","◇"),IF(AND(AS$3&gt;=$H34,AS$3&lt;=$L34),IF(ISERROR(FIND(AS$4,"土日休")),"□","□"),""))</f>
         <v/>
       </c>
       <c r="AT34" s="32" t="str">
@@ -11033,13 +11247,13 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN34" s="56" t="str">
+      <c r="BN34" s="53" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="54" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -11049,22 +11263,26 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="24"/>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="42">
+      <c r="H35" s="37">
+        <v>41653</v>
+      </c>
+      <c r="I35" s="34">
+        <v>41663</v>
+      </c>
+      <c r="J35" s="41">
         <f>COUNTIF(M35:BN35,"■")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K35" s="25">
         <f>IF(ISBLANK(H35),H35,IF(ISBLANK(I35),INT(H35-1+(#REF!-#REF!+1)*J35),I35))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="L35" s="25">
         <f>IF(ISBLANK(H35),H35,IF(ISBLANK(I35),H35+#REF!-#REF!,I35))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="M35" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11100,47 +11318,47 @@
       </c>
       <c r="U35" s="27" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="V35" s="27" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="W35" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="X35" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="Y35" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="Z35" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="AA35" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AB35" s="27" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AC35" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AD35" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AE35" s="27" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AF35" s="27" t="str">
         <f t="shared" si="21"/>
@@ -11278,7 +11496,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN35" s="55" t="str">
+      <c r="BN35" s="52" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -11290,10 +11508,10 @@
       <c r="D36" s="17"/>
       <c r="E36" s="28"/>
       <c r="F36" s="29"/>
-      <c r="G36" s="59"/>
+      <c r="G36" s="56"/>
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
-      <c r="J36" s="43"/>
+      <c r="J36" s="42"/>
       <c r="K36" s="30">
         <f>IF(ISBLANK(H36),H36,IF(ISBLANK(I36),INT(H36-1+(I35-H35+1)*J36),I36))</f>
         <v>0</v>
@@ -11514,13 +11732,13 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BN36" s="56" t="str">
+      <c r="BN36" s="53" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="54" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -11530,23 +11748,27 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="24"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="44">
+      <c r="G37" s="55"/>
+      <c r="H37" s="37">
+        <v>41653</v>
+      </c>
+      <c r="I37" s="34">
+        <v>41663</v>
+      </c>
+      <c r="J37" s="43">
         <f>COUNTIF(M37:BN37,"■")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K37" s="25">
         <f>IF(ISBLANK(H37),H37,IF(ISBLANK(I37),INT(H37-1+(#REF!-#REF!+1)*J37),I37))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="L37" s="25">
         <f>IF(ISBLANK(H37),H37,IF(ISBLANK(I37),H37+#REF!-#REF!,I37))</f>
-        <v>0</v>
+        <v>41663</v>
       </c>
       <c r="M37" s="26" t="str">
-        <f t="shared" ref="M37:AB45" si="29">IF(AND(M$3&gt;=$H37,M$3&lt;=$K37),IF(ISERROR(FIND(M$4,"土日休")),"■","◇"),IF(AND(M$3&gt;=$H37,M$3&lt;=$L37),IF(ISERROR(FIND(M$4,"土日休")),"□","□"),""))</f>
+        <f t="shared" ref="M37:AB44" si="29">IF(AND(M$3&gt;=$H37,M$3&lt;=$K37),IF(ISERROR(FIND(M$4,"土日休")),"■","◇"),IF(AND(M$3&gt;=$H37,M$3&lt;=$L37),IF(ISERROR(FIND(M$4,"土日休")),"□","□"),""))</f>
         <v/>
       </c>
       <c r="N37" s="27" t="str">
@@ -11579,47 +11801,47 @@
       </c>
       <c r="U37" s="27" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="V37" s="27" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="W37" s="27" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="X37" s="27" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="Y37" s="27" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="Z37" s="27" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="AA37" s="27" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AB37" s="27" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AC37" s="27" t="str">
-        <f t="shared" ref="AC37:AR45" si="30">IF(AND(AC$3&gt;=$H37,AC$3&lt;=$K37),IF(ISERROR(FIND(AC$4,"土日休")),"■","◇"),IF(AND(AC$3&gt;=$H37,AC$3&lt;=$L37),IF(ISERROR(FIND(AC$4,"土日休")),"□","□"),""))</f>
-        <v/>
+        <f t="shared" ref="AC37:AR44" si="30">IF(AND(AC$3&gt;=$H37,AC$3&lt;=$K37),IF(ISERROR(FIND(AC$4,"土日休")),"■","◇"),IF(AND(AC$3&gt;=$H37,AC$3&lt;=$L37),IF(ISERROR(FIND(AC$4,"土日休")),"□","□"),""))</f>
+        <v>■</v>
       </c>
       <c r="AD37" s="27" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AE37" s="27" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="AF37" s="27" t="str">
         <f t="shared" si="30"/>
@@ -11674,7 +11896,7 @@
         <v/>
       </c>
       <c r="AS37" s="27" t="str">
-        <f t="shared" ref="AS37:BH51" si="31">IF(AND(AS$3&gt;=$H37,AS$3&lt;=$K37),IF(ISERROR(FIND(AS$4,"土日休")),"■","◇"),IF(AND(AS$3&gt;=$H37,AS$3&lt;=$L37),IF(ISERROR(FIND(AS$4,"土日休")),"□","□"),""))</f>
+        <f t="shared" ref="AS37:BH44" si="31">IF(AND(AS$3&gt;=$H37,AS$3&lt;=$K37),IF(ISERROR(FIND(AS$4,"土日休")),"■","◇"),IF(AND(AS$3&gt;=$H37,AS$3&lt;=$L37),IF(ISERROR(FIND(AS$4,"土日休")),"□","□"),""))</f>
         <v/>
       </c>
       <c r="AT37" s="27" t="str">
@@ -11738,7 +11960,7 @@
         <v/>
       </c>
       <c r="BI37" s="27" t="str">
-        <f t="shared" ref="AY37:BN52" si="32">IF(AND(BI$3&gt;=$H37,BI$3&lt;=$K37),IF(ISERROR(FIND(BI$4,"土日休")),"■","◇"),IF(AND(BI$3&gt;=$H37,BI$3&lt;=$L37),IF(ISERROR(FIND(BI$4,"土日休")),"□","□"),""))</f>
+        <f t="shared" ref="AY37:BN44" si="32">IF(AND(BI$3&gt;=$H37,BI$3&lt;=$K37),IF(ISERROR(FIND(BI$4,"土日休")),"■","◇"),IF(AND(BI$3&gt;=$H37,BI$3&lt;=$L37),IF(ISERROR(FIND(BI$4,"土日休")),"□","□"),""))</f>
         <v/>
       </c>
       <c r="BJ37" s="27" t="str">
@@ -11757,7 +11979,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="BN37" s="55" t="str">
+      <c r="BN37" s="52" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
@@ -11771,10 +11993,10 @@
       <c r="D38" s="17"/>
       <c r="E38" s="28"/>
       <c r="F38" s="29"/>
-      <c r="G38" s="59"/>
+      <c r="G38" s="56"/>
       <c r="H38" s="36"/>
       <c r="I38" s="35"/>
-      <c r="J38" s="43"/>
+      <c r="J38" s="42"/>
       <c r="K38" s="30">
         <f>IF(ISBLANK(H38),H38,IF(ISBLANK(I38),INT(H38-1+(I37-H37+1)*J38),I38))</f>
         <v>0</v>
@@ -11995,13 +12217,13 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="BN38" s="56" t="str">
+      <c r="BN38" s="53" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="54" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -12011,12 +12233,12 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="58" t="s">
+      <c r="G39" s="55" t="s">
         <v>56</v>
       </c>
       <c r="H39" s="37"/>
       <c r="I39" s="34"/>
-      <c r="J39" s="44">
+      <c r="J39" s="43">
         <f>COUNTIF(M39:BN39,"■")</f>
         <v>0</v>
       </c>
@@ -12240,7 +12462,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="BN39" s="55" t="str">
+      <c r="BN39" s="52" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
@@ -12251,11 +12473,11 @@
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="59"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="56"/>
       <c r="H40" s="35"/>
       <c r="I40" s="38"/>
-      <c r="J40" s="43"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="30">
         <f>IF(ISBLANK(H40),H40,IF(ISBLANK(I40),INT(H40-1+(I39-H39+1)*J40),I40))</f>
         <v>0</v>
@@ -12476,13 +12698,13 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="BN40" s="56" t="str">
+      <c r="BN40" s="53" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="54" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -12492,10 +12714,12 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="58"/>
+      <c r="G41" s="55" t="s">
+        <v>56</v>
+      </c>
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
-      <c r="J41" s="42">
+      <c r="J41" s="41">
         <f>COUNTIF(M41:BN41,"■")</f>
         <v>0</v>
       </c>
@@ -12719,7 +12943,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="BN41" s="55" t="str">
+      <c r="BN41" s="52" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
@@ -12731,10 +12955,10 @@
       <c r="D42" s="17"/>
       <c r="E42" s="28"/>
       <c r="F42" s="29"/>
-      <c r="G42" s="59"/>
+      <c r="G42" s="56"/>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
-      <c r="J42" s="43"/>
+      <c r="J42" s="42"/>
       <c r="K42" s="30">
         <f>IF(ISBLANK(H42),H42,IF(ISBLANK(I42),INT(H42-1+(I41-H41+1)*J42),I42))</f>
         <v>0</v>
@@ -12955,13 +13179,13 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="BN42" s="56" t="str">
+      <c r="BN42" s="53" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="54" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -12971,10 +13195,10 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="24"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="44">
+      <c r="G43" s="55"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="65">
         <f>COUNTIF(M43:BN43,"■")</f>
         <v>0</v>
       </c>
@@ -13198,22 +13422,24 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="BN43" s="55" t="str">
+      <c r="BN43" s="52" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:66" ht="20.25" customHeight="1">
       <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
+      <c r="B44" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="36"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="35"/>
       <c r="I44" s="35"/>
-      <c r="J44" s="43"/>
+      <c r="J44" s="42"/>
       <c r="K44" s="30">
         <f>IF(ISBLANK(H44),H44,IF(ISBLANK(I44),INT(H44-1+(I43-H43+1)*J44),I44))</f>
         <v>0</v>
@@ -13434,3831 +13660,14 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="BN44" s="56" t="str">
+      <c r="BN44" s="53" t="str">
         <f t="shared" si="32"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="44">
-        <f>COUNTIF(M45:BN45,"■")</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="25">
-        <f>IF(ISBLANK(H45),H45,IF(ISBLANK(I45),INT(H45-1+(#REF!-#REF!+1)*J45),I45))</f>
-        <v>0</v>
-      </c>
-      <c r="L45" s="25">
-        <f>IF(ISBLANK(H45),H45,IF(ISBLANK(I45),H45+#REF!-#REF!,I45))</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="26" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="N45" s="27" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="O45" s="27" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="P45" s="27" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="Q45" s="27" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="R45" s="27" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="S45" s="27" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="T45" s="27" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="U45" s="27" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="V45" s="27" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="W45" s="27" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="X45" s="27" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="Y45" s="27" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="Z45" s="27" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="AA45" s="27" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="AB45" s="27" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="AC45" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AD45" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AE45" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AF45" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AG45" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AH45" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AI45" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AJ45" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AK45" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AL45" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AM45" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AN45" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AO45" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AP45" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AQ45" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AR45" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AS45" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AT45" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AU45" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AV45" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AW45" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AX45" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AY45" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AZ45" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BA45" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BB45" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BC45" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BD45" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BE45" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BF45" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BG45" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BH45" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BI45" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BJ45" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BK45" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BL45" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BM45" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BN45" s="55" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="30">
-        <f>IF(ISBLANK(H46),H46,IF(ISBLANK(I46),INT(H46-1+(I45-H45+1)*J46),I46))</f>
-        <v>0</v>
-      </c>
-      <c r="L46" s="30">
-        <f>IF(ISBLANK(H46),H46,IF(ISBLANK(I46),H46+I45-H45,I46))</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="31" t="str">
-        <f t="shared" ref="M46:AB58" si="33">IF(AND(M$3&gt;=$H46,M$3&lt;=$K46),IF(ISERROR(FIND(M$4,"土日休")),"■","◇"),IF(AND(M$3&gt;=$H46,M$3&lt;=$L46),IF(ISERROR(FIND(M$4,"土日休")),"□","□"),""))</f>
-        <v/>
-      </c>
-      <c r="N46" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O46" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P46" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q46" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="R46" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="S46" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="T46" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="U46" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="V46" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="W46" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X46" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Y46" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Z46" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AA46" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AB46" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AC46" s="32" t="str">
-        <f t="shared" ref="AC46:AR58" si="34">IF(AND(AC$3&gt;=$H46,AC$3&lt;=$K46),IF(ISERROR(FIND(AC$4,"土日休")),"■","◇"),IF(AND(AC$3&gt;=$H46,AC$3&lt;=$L46),IF(ISERROR(FIND(AC$4,"土日休")),"□","□"),""))</f>
-        <v/>
-      </c>
-      <c r="AD46" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AE46" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AF46" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AG46" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH46" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AI46" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AJ46" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AK46" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AL46" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AM46" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AN46" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AO46" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AP46" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AQ46" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AR46" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AS46" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AT46" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AU46" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AV46" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AW46" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AX46" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AY46" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AZ46" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BA46" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BB46" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BC46" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BD46" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BE46" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BF46" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BG46" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BH46" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BI46" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BJ46" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BK46" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BL46" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BM46" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BN46" s="56" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="42">
-        <f>COUNTIF(M47:BN47,"■")</f>
-        <v>0</v>
-      </c>
-      <c r="K47" s="25">
-        <f>IF(ISBLANK(H47),H47,IF(ISBLANK(I47),INT(H47-1+(#REF!-#REF!+1)*J47),I47))</f>
-        <v>0</v>
-      </c>
-      <c r="L47" s="25">
-        <f>IF(ISBLANK(H47),H47,IF(ISBLANK(I47),H47+#REF!-#REF!,I47))</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="26" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N47" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O47" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P47" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q47" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="R47" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="S47" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="T47" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="U47" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="V47" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="W47" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X47" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Y47" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Z47" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AA47" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AB47" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AC47" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AD47" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AE47" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AF47" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AG47" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH47" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AI47" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AJ47" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AK47" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AL47" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AM47" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AN47" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AO47" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AP47" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AQ47" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AR47" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AS47" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AT47" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AU47" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AV47" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AW47" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AX47" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AY47" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AZ47" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BA47" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BB47" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BC47" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BD47" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BE47" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BF47" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BG47" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BH47" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BI47" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BJ47" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BK47" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BL47" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BM47" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BN47" s="55" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="30">
-        <f>IF(ISBLANK(H48),H48,IF(ISBLANK(I48),INT(H48-1+(I47-H47+1)*J48),I48))</f>
-        <v>0</v>
-      </c>
-      <c r="L48" s="30">
-        <f>IF(ISBLANK(H48),H48,IF(ISBLANK(I48),H48+I47-H47,I48))</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="31" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N48" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O48" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P48" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q48" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="R48" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="S48" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="T48" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="U48" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="V48" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="W48" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X48" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Y48" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Z48" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AA48" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AB48" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AC48" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AD48" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AE48" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AF48" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AG48" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH48" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AI48" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AJ48" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AK48" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AL48" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AM48" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AN48" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AO48" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AP48" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AQ48" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AR48" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AS48" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AT48" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AU48" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AV48" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AW48" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AX48" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AY48" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AZ48" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BA48" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BB48" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BC48" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BD48" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BE48" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BF48" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BG48" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BH48" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BI48" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BJ48" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BK48" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BL48" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BM48" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BN48" s="56" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="44">
-        <f>COUNTIF(M49:BN49,"■")</f>
-        <v>0</v>
-      </c>
-      <c r="K49" s="25">
-        <f>IF(ISBLANK(H49),H49,IF(ISBLANK(I49),INT(H49-1+(#REF!-#REF!+1)*J49),I49))</f>
-        <v>0</v>
-      </c>
-      <c r="L49" s="25">
-        <f>IF(ISBLANK(H49),H49,IF(ISBLANK(I49),H49+#REF!-#REF!,I49))</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="26" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N49" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O49" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P49" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q49" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="R49" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="S49" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="T49" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="U49" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="V49" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="W49" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X49" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Y49" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Z49" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AA49" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AB49" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AC49" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AD49" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AE49" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AF49" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AG49" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH49" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AI49" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AJ49" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AK49" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AL49" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AM49" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AN49" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AO49" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AP49" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AQ49" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AR49" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AS49" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AT49" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AU49" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AV49" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AW49" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AX49" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AY49" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AZ49" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BA49" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BB49" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BC49" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BD49" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BE49" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BF49" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BG49" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BH49" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BI49" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BJ49" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BK49" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BL49" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BM49" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BN49" s="55" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="30">
-        <f>IF(ISBLANK(H50),H50,IF(ISBLANK(I50),INT(H50-1+(I49-H49+1)*J50),I50))</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="30">
-        <f>IF(ISBLANK(H50),H50,IF(ISBLANK(I50),H50+I49-H49,I50))</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="31" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N50" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O50" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P50" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q50" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="R50" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="S50" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="T50" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="U50" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="V50" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="W50" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X50" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Y50" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Z50" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AA50" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AB50" s="32" t="str">
-        <f>IF(AND(AB$3&gt;=$H50,AB$3&lt;=$K50),IF(ISERROR(FIND(AB$4,"土日休")),"■","◇"),IF(AND(AB$3&gt;=$H50,AB$3&lt;=$L50),IF(ISERROR(FIND(AB$4,"土日休")),"□","□"),""))</f>
-        <v/>
-      </c>
-      <c r="AC50" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AD50" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AE50" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AF50" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AG50" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH50" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AI50" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AJ50" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AK50" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AL50" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AM50" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AN50" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AO50" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AP50" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AQ50" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AR50" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AS50" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AT50" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AU50" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AV50" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AW50" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AX50" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AY50" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AZ50" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BA50" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BB50" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BC50" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BD50" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BE50" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BF50" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BG50" s="32" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="BH50" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BI50" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BJ50" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BK50" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BL50" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BM50" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BN50" s="56" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="44">
-        <f>COUNTIF(M51:BN51,"■")</f>
-        <v>0</v>
-      </c>
-      <c r="K51" s="25">
-        <f>IF(ISBLANK(H51),H51,IF(ISBLANK(I51),INT(H51-1+(#REF!-#REF!+1)*J51),I51))</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="25">
-        <f>IF(ISBLANK(H51),H51,IF(ISBLANK(I51),H51+#REF!-#REF!,I51))</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="26" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N51" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O51" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P51" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q51" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="R51" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="S51" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="T51" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="U51" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="V51" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="W51" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X51" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Y51" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Z51" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AA51" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AB51" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AC51" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AD51" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AE51" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AF51" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AG51" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH51" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AI51" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AJ51" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AK51" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AL51" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AM51" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AN51" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AO51" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AP51" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AQ51" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AR51" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AS51" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AT51" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AU51" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AV51" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AW51" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AX51" s="27" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AY51" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AZ51" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BA51" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BB51" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BC51" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BD51" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BE51" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BF51" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BG51" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BH51" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BI51" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BJ51" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BK51" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BL51" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BM51" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BN51" s="55" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="30">
-        <f>IF(ISBLANK(H52),H52,IF(ISBLANK(I52),INT(H52-1+(I51-H51+1)*J52),I52))</f>
-        <v>0</v>
-      </c>
-      <c r="L52" s="30">
-        <f>IF(ISBLANK(H52),H52,IF(ISBLANK(I52),H52+I51-H51,I52))</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="31" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N52" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O52" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P52" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q52" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="R52" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="S52" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="T52" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="U52" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="V52" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="W52" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X52" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Y52" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Z52" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AA52" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AB52" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AC52" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AD52" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AE52" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AF52" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AG52" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH52" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AI52" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AJ52" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AK52" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AL52" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AM52" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AN52" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AO52" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AP52" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AQ52" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AR52" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AS52" s="32" t="str">
-        <f t="shared" ref="AS52:BH58" si="35">IF(AND(AS$3&gt;=$H52,AS$3&lt;=$K52),IF(ISERROR(FIND(AS$4,"土日休")),"■","◇"),IF(AND(AS$3&gt;=$H52,AS$3&lt;=$L52),IF(ISERROR(FIND(AS$4,"土日休")),"□","□"),""))</f>
-        <v/>
-      </c>
-      <c r="AT52" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AU52" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AV52" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AW52" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AX52" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AY52" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="AZ52" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BA52" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BB52" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BC52" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BD52" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BE52" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BF52" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BG52" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BH52" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BI52" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BJ52" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BK52" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BL52" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BM52" s="32" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="BN52" s="56" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="42">
-        <f>COUNTIF(M53:BN53,"■")</f>
-        <v>0</v>
-      </c>
-      <c r="K53" s="25">
-        <f>IF(ISBLANK(H53),H53,IF(ISBLANK(I53),INT(H53-1+(#REF!-#REF!+1)*J53),I53))</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="25">
-        <f>IF(ISBLANK(H53),H53,IF(ISBLANK(I53),H53+#REF!-#REF!,I53))</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="26" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N53" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O53" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P53" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q53" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="R53" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="S53" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="T53" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="U53" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="V53" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="W53" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X53" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Y53" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Z53" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AA53" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AB53" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AC53" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AD53" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AE53" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AF53" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AG53" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH53" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AI53" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AJ53" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AK53" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AL53" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AM53" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AN53" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AO53" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AP53" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AQ53" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AR53" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AS53" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AT53" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AU53" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AV53" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AW53" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AX53" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AY53" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AZ53" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BA53" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BB53" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BC53" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BD53" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BE53" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BF53" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BG53" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BH53" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BI53" s="27" t="str">
-        <f t="shared" ref="BI53:BN58" si="36">IF(AND(BI$3&gt;=$H53,BI$3&lt;=$K53),IF(ISERROR(FIND(BI$4,"土日休")),"■","◇"),IF(AND(BI$3&gt;=$H53,BI$3&lt;=$L53),IF(ISERROR(FIND(BI$4,"土日休")),"□","□"),""))</f>
-        <v/>
-      </c>
-      <c r="BJ53" s="27" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BK53" s="27" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BL53" s="27" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BM53" s="27" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BN53" s="55" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="30">
-        <f>IF(ISBLANK(H54),H54,IF(ISBLANK(I54),INT(H54-1+(I53-H53+1)*J54),I54))</f>
-        <v>0</v>
-      </c>
-      <c r="L54" s="30">
-        <f>IF(ISBLANK(H54),H54,IF(ISBLANK(I54),H54+I53-H53,I54))</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="31" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N54" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O54" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P54" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q54" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="R54" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="S54" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="T54" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="U54" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="V54" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="W54" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X54" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Y54" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Z54" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AA54" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AB54" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AC54" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AD54" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AE54" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AF54" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AG54" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH54" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AI54" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AJ54" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AK54" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AL54" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AM54" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AN54" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AO54" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AP54" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AQ54" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AR54" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AS54" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AT54" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AU54" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AV54" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AW54" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AX54" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AY54" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AZ54" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BA54" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BB54" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BC54" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BD54" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BE54" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BF54" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BG54" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BH54" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BI54" s="32" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BJ54" s="32" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BK54" s="32" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BL54" s="32" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BM54" s="32" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BN54" s="56" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="44">
-        <f>COUNTIF(M55:BN55,"■")</f>
-        <v>0</v>
-      </c>
-      <c r="K55" s="25">
-        <f>IF(ISBLANK(H55),H55,IF(ISBLANK(I55),INT(H55-1+(#REF!-#REF!+1)*J55),I55))</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="25">
-        <f>IF(ISBLANK(H55),H55,IF(ISBLANK(I55),H55+#REF!-#REF!,I55))</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="26" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N55" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O55" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P55" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q55" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="R55" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="S55" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="T55" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="U55" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="V55" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="W55" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X55" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Y55" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Z55" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AA55" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AB55" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AC55" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AD55" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AE55" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AF55" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AG55" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH55" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AI55" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AJ55" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AK55" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AL55" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AM55" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AN55" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AO55" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AP55" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AQ55" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AR55" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AS55" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AT55" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AU55" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AV55" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AW55" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AX55" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AY55" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AZ55" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BA55" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BB55" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BC55" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BD55" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BE55" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BF55" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BG55" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BH55" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BI55" s="27" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BJ55" s="27" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BK55" s="27" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BL55" s="27" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BM55" s="27" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BN55" s="55" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A56" s="15"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="30">
-        <f>IF(ISBLANK(H56),H56,IF(ISBLANK(I56),INT(H56-1+(I55-H55+1)*J56),I56))</f>
-        <v>0</v>
-      </c>
-      <c r="L56" s="30">
-        <f>IF(ISBLANK(H56),H56,IF(ISBLANK(I56),H56+I55-H55,I56))</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="31" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N56" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O56" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P56" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q56" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="R56" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="S56" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="T56" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="U56" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="V56" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="W56" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X56" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Y56" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Z56" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AA56" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AB56" s="32" t="str">
-        <f>IF(AND(AB$3&gt;=$H56,AB$3&lt;=$K56),IF(ISERROR(FIND(AB$4,"土日休")),"■","◇"),IF(AND(AB$3&gt;=$H56,AB$3&lt;=$L56),IF(ISERROR(FIND(AB$4,"土日休")),"□","□"),""))</f>
-        <v/>
-      </c>
-      <c r="AC56" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AD56" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AE56" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AF56" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AG56" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH56" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AI56" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AJ56" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AK56" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AL56" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AM56" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AN56" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AO56" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AP56" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AQ56" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AR56" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AS56" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AT56" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AU56" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AV56" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AW56" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AX56" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AY56" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AZ56" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BA56" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BB56" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BC56" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BD56" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BE56" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BF56" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BG56" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BH56" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BI56" s="32" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BJ56" s="32" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BK56" s="32" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BL56" s="32" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BM56" s="32" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BN56" s="56" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="44">
-        <f>COUNTIF(M57:BN57,"■")</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="25">
-        <f>IF(ISBLANK(H57),H57,IF(ISBLANK(I57),INT(H57-1+(#REF!-#REF!+1)*J57),I57))</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="25">
-        <f>IF(ISBLANK(H57),H57,IF(ISBLANK(I57),H57+#REF!-#REF!,I57))</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="26" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N57" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O57" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P57" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q57" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="R57" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="S57" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="T57" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="U57" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="V57" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="W57" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X57" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Y57" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Z57" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AA57" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AB57" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AC57" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AD57" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AE57" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AF57" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AG57" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH57" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AI57" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AJ57" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AK57" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AL57" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AM57" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AN57" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AO57" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AP57" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AQ57" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AR57" s="27" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AS57" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AT57" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AU57" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AV57" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AW57" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AX57" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AY57" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AZ57" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BA57" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BB57" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BC57" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BD57" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BE57" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BF57" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BG57" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BH57" s="27" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BI57" s="27" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BJ57" s="27" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BK57" s="27" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BL57" s="27" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BM57" s="27" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BN57" s="55" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="30">
-        <f>IF(ISBLANK(H58),H58,IF(ISBLANK(I58),INT(H58-1+(I57-H57+1)*J58),I58))</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="30">
-        <f>IF(ISBLANK(H58),H58,IF(ISBLANK(I58),H58+I57-H57,I58))</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="31" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N58" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O58" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P58" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q58" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="R58" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="S58" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="T58" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="U58" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="V58" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="W58" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="X58" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Y58" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Z58" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AA58" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AB58" s="32" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="AC58" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AD58" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AE58" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AF58" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AG58" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AH58" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AI58" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AJ58" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AK58" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AL58" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AM58" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AN58" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AO58" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AP58" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AQ58" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AR58" s="32" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="AS58" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AT58" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AU58" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AV58" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AW58" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AX58" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AY58" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AZ58" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BA58" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BB58" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BC58" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BD58" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BE58" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BF58" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BG58" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BH58" s="32" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="BI58" s="32" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BJ58" s="32" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BK58" s="32" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BL58" s="32" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BM58" s="32" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="BN58" s="56" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="44">
-        <f>COUNTIF(M59:BN59,"■")</f>
-        <v>0</v>
-      </c>
-      <c r="K59" s="25">
-        <f>IF(ISBLANK(H59),H59,IF(ISBLANK(I59),INT(H59-1+(#REF!-#REF!+1)*J59),I59))</f>
-        <v>0</v>
-      </c>
-      <c r="L59" s="25">
-        <f>IF(ISBLANK(H59),H59,IF(ISBLANK(I59),H59+#REF!-#REF!,I59))</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="26" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N59" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O59" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="P59" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q59" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R59" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="S59" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T59" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="U59" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="V59" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="W59" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="X59" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y59" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Z59" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AA59" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AB59" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AC59" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AD59" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AE59" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AF59" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AG59" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AH59" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AI59" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AJ59" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK59" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AL59" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AM59" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AN59" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AO59" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AP59" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AQ59" s="27" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AR59" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AS59" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AT59" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AU59" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AV59" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AW59" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AX59" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AY59" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="AZ59" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BA59" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BB59" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BC59" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BD59" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BE59" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BF59" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BG59" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BH59" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BI59" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BJ59" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BK59" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BL59" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BM59" s="27" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BN59" s="55" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:66" ht="20.25" customHeight="1">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="30">
-        <f>IF(ISBLANK(H60),H60,IF(ISBLANK(I60),INT(H60-1+(I59-H59+1)*J60),I60))</f>
-        <v>0</v>
-      </c>
-      <c r="L60" s="30">
-        <f>IF(ISBLANK(H60),H60,IF(ISBLANK(I60),H60+I59-H59,I60))</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="31" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N60" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O60" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="P60" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q60" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R60" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="S60" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T60" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="U60" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="V60" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="W60" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="X60" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y60" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Z60" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AA60" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AB60" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AC60" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AD60" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AE60" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AF60" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AG60" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AH60" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AI60" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AJ60" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK60" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AL60" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AM60" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AN60" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AO60" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AP60" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AQ60" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AR60" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AS60" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AT60" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AU60" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AV60" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AW60" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AX60" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AY60" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="AZ60" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BA60" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BB60" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BC60" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BD60" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BE60" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BF60" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BG60" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BH60" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BI60" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BJ60" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BK60" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BL60" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BM60" s="32" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BN60" s="56" t="str">
-        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:J60"/>
-  <mergeCells count="32">
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G59:G60"/>
+  <autoFilter ref="A4:J44"/>
+  <mergeCells count="24">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I1:J1"/>
@@ -17274,221 +13683,258 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G43:G44"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="M59:HJ60 M25:HJ30 M5:HJ10 M13:HJ22">
-    <cfRule type="expression" dxfId="54" priority="411" stopIfTrue="1">
+  <conditionalFormatting sqref="M25:HJ30 M5:HJ10 M13:HJ22">
+    <cfRule type="expression" dxfId="65" priority="426" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="597" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="612" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="598" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="613" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:J9 A27:D28 F27:J27 A10:F10 H10:J10 F59:J59 F28 H28:J28 A14:F14 H14:J14 F60 H60:J60 A13:J13 A59:D60">
-    <cfRule type="expression" dxfId="51" priority="648" stopIfTrue="1">
+  <conditionalFormatting sqref="A9:G9 A27:D28 F27:G27 A10:F10 H10:J10 F28 H28:J28 A14:F14 H14:J14 A13:G13 J9 J13 J27">
+    <cfRule type="expression" dxfId="62" priority="663" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:HJ2">
-    <cfRule type="cellIs" dxfId="50" priority="644" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="659" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:HJ4">
-    <cfRule type="cellIs" dxfId="49" priority="645" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="660" stopIfTrue="1" operator="equal">
       <formula>"土"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="646" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="661" stopIfTrue="1" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="647" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="662" stopIfTrue="1" operator="equal">
       <formula>"休"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:BN3">
-    <cfRule type="cellIs" dxfId="46" priority="412" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="427" stopIfTrue="1" operator="equal">
       <formula>$I$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28 E59:E60">
-    <cfRule type="expression" dxfId="45" priority="154" stopIfTrue="1">
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="expression" dxfId="56" priority="169" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:J29 A17:D18 F17:J17 A30:B30 H30:J30 F18 H18:J18 A16:F16 H16:J16 A15:J15">
-    <cfRule type="expression" dxfId="44" priority="47" stopIfTrue="1">
+  <conditionalFormatting sqref="A29:G29 A17:D18 F17:G17 A30:B30 H30:J30 F18 H18:J18 A16:F16 H16:J16 A15:G15 J15 J17 J29">
+    <cfRule type="expression" dxfId="55" priority="62" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="expression" dxfId="43" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:HJ24">
-    <cfRule type="expression" dxfId="42" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="55" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="56" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:J21 A23:D24 F23:J23 A22:F22 H22:J22 F24 H24:J24 A20:F20 H20:J20 A19:J19">
-    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
+  <conditionalFormatting sqref="A21:G21 A23:D24 F23:G23 A22:F22 H22:J22 F24 H24:J24 A20:F20 H20:J20 A19:G19 J19 J21 J23">
+    <cfRule type="expression" dxfId="50" priority="57" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E24">
-    <cfRule type="expression" dxfId="38" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="53" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:J7 A5:D6 F5:J5 A8:F8 H8:J8 F6 H6:J6 A26:F26 H26:J26 A25:J25">
-    <cfRule type="expression" dxfId="37" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="A5:D6 F5:J5 A8:F8 H8:J8 F6 H6:J6 A26:F26 H26:J26 A25:G25 A7:J7 J25">
+    <cfRule type="expression" dxfId="48" priority="52" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E6">
-    <cfRule type="expression" dxfId="36" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="48" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31:HJ32 M37:HJ40">
-    <cfRule type="expression" dxfId="35" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="44" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="45" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="46" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:J31 A39:D40 F39:J39 A32:F32 H32:J32 F40 H40:J40 A38:F38 H38:J38 A37:J37">
-    <cfRule type="expression" dxfId="32" priority="32" stopIfTrue="1">
+  <conditionalFormatting sqref="A31:G31 A39:D40 F39:J39 A32:F32 H32:J32 F40 H40:J40 A38:F38 H38:J38 A37:G37 J31 J37">
+    <cfRule type="expression" dxfId="43" priority="47" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E40">
-    <cfRule type="expression" dxfId="31" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M41:HJ46">
-    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
+  <conditionalFormatting sqref="M41:HJ44">
+    <cfRule type="expression" dxfId="41" priority="39" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="40" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="41" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:J41 A45:D46 F45:J45 A42:F42 H42:J42 F46 H46:J46 A44:F44 H44:J44 A43:J43">
-    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
-      <formula>MOD(INT((ROW()+1)/2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="expression" dxfId="26" priority="23" stopIfTrue="1">
-      <formula>MOD(INT((ROW()+1)/2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M47:HJ52">
-    <cfRule type="expression" dxfId="25" priority="19" stopIfTrue="1">
-      <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20" stopIfTrue="1">
-      <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
-      <formula>MOD(INT((ROW()+1)/2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:J47 A51:D52 F51:J51 A48:F48 H48:J48 F52 H52:J52 A50:F50 H50:J50 A49:J49">
-    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
-      <formula>MOD(INT((ROW()+1)/2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E52">
-    <cfRule type="expression" dxfId="21" priority="18" stopIfTrue="1">
-      <formula>MOD(INT((ROW()+1)/2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M53:HJ58">
-    <cfRule type="expression" dxfId="20" priority="14" stopIfTrue="1">
-      <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="15" stopIfTrue="1">
-      <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="16" stopIfTrue="1">
-      <formula>MOD(INT((ROW()+1)/2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:J53 A57:D58 F57:J57 A54:F54 H54:J54 F58 H58:J58 A56:F56 H56:J56 A55:J55">
-    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
-      <formula>MOD(INT((ROW()+1)/2),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="expression" dxfId="16" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="A41:J41 A42:F42 H42:J42 A44:F44 H44:J44 A43:J43">
+    <cfRule type="expression" dxfId="38" priority="42" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:HJ12">
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="24" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="25" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:J11 A12:F12 H12:J12">
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="A11:G11 A12:F12 H12:J12 J11">
+    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:HJ34">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:J33 A34:F34 H34:J34">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="A33:G33 A34:F34 H34:J34 J33">
+    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:HJ36">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="16" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:J35 A36:F36 H36:J36">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="A35:G35 A36:F36 H36:J36 J35">
+    <cfRule type="expression" dxfId="15" priority="19" stopIfTrue="1">
+      <formula>MOD(INT((ROW()+1)/2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:I9">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+      <formula>MOD(INT((ROW()+1)/2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:I11">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>MOD(INT((ROW()+1)/2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:I13">
+    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
+      <formula>MOD(INT((ROW()+1)/2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:I15">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
+      <formula>MOD(INT((ROW()+1)/2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:I17">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+      <formula>MOD(INT((ROW()+1)/2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:I19">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>MOD(INT((ROW()+1)/2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:I21">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+      <formula>MOD(INT((ROW()+1)/2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:I23">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>MOD(INT((ROW()+1)/2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:I25">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>MOD(INT((ROW()+1)/2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:I27">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>MOD(INT((ROW()+1)/2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:I29">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>MOD(INT((ROW()+1)/2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:I31">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>MOD(INT((ROW()+1)/2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:I33">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>MOD(INT((ROW()+1)/2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:I35">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>MOD(INT((ROW()+1)/2),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:I37">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/20 開発資料/05.改修管理/000_WBS_変更管理.xlsx
+++ b/20 開発資料/05.改修管理/000_WBS_変更管理.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -545,6 +545,20 @@
     <t>(1/14受領)</t>
     <rPh sb="5" eb="7">
       <t>ジュリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2053,27 +2067,33 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="45" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="43" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="43" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="43" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="43" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="43" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="43" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2082,12 +2102,6 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="45" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="130">
@@ -2222,7 +2236,7 @@
     <cellStyle name="良い 2" xfId="128"/>
     <cellStyle name="良い 3" xfId="129"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="55">
     <dxf>
       <fill>
         <patternFill>
@@ -2409,83 +2423,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2697,118 +2634,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3181,7 +3006,7 @@
       <pane xSplit="12" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AQ9" sqref="AQ9"/>
+      <selection pane="bottomRight" activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -3992,7 +3817,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="24"/>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="62" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="37">
@@ -4237,7 +4062,7 @@
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="45"/>
-      <c r="G6" s="56"/>
+      <c r="G6" s="63"/>
       <c r="H6" s="35"/>
       <c r="I6" s="38"/>
       <c r="J6" s="42"/>
@@ -4477,7 +4302,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="62" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="37">
@@ -4722,7 +4547,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="56"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="42"/>
@@ -4962,7 +4787,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="62" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="37">
@@ -5207,7 +5032,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="28"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="56"/>
+      <c r="G10" s="63"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="J10" s="42"/>
@@ -5447,7 +5272,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="62" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="37">
@@ -5692,7 +5517,7 @@
       <c r="D12" s="17"/>
       <c r="E12" s="28"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="56"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
       <c r="J12" s="42"/>
@@ -5932,7 +5757,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="62" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="37">
@@ -6177,7 +6002,7 @@
       <c r="D14" s="17"/>
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="56"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="36"/>
       <c r="I14" s="35"/>
       <c r="J14" s="42"/>
@@ -6417,26 +6242,26 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="62" t="s">
         <v>37</v>
       </c>
       <c r="H15" s="37">
         <v>41653</v>
       </c>
       <c r="I15" s="34">
-        <v>41663</v>
+        <v>41654</v>
       </c>
       <c r="J15" s="43">
         <f>COUNTIF(M15:BN15,"■")</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K15" s="25">
         <f>IF(ISBLANK(H15),H15,IF(ISBLANK(I15),INT(H15-1+(#REF!-#REF!+1)*J15),I15))</f>
-        <v>41663</v>
+        <v>41654</v>
       </c>
       <c r="L15" s="25">
         <f>IF(ISBLANK(H15),H15,IF(ISBLANK(I15),H15+#REF!-#REF!,I15))</f>
-        <v>41663</v>
+        <v>41654</v>
       </c>
       <c r="M15" s="26" t="str">
         <f t="shared" ref="M15:AB36" si="20">IF(AND(M$3&gt;=$H15,M$3&lt;=$K15),IF(ISERROR(FIND(M$4,"土日休")),"■","◇"),IF(AND(M$3&gt;=$H15,M$3&lt;=$L15),IF(ISERROR(FIND(M$4,"土日休")),"□","□"),""))</f>
@@ -6480,39 +6305,39 @@
       </c>
       <c r="W15" s="27" t="str">
         <f t="shared" si="20"/>
-        <v>■</v>
+        <v/>
       </c>
       <c r="X15" s="27" t="str">
         <f t="shared" si="20"/>
-        <v>■</v>
+        <v/>
       </c>
       <c r="Y15" s="27" t="str">
         <f t="shared" si="20"/>
-        <v>◇</v>
+        <v/>
       </c>
       <c r="Z15" s="27" t="str">
         <f t="shared" si="20"/>
-        <v>◇</v>
+        <v/>
       </c>
       <c r="AA15" s="27" t="str">
         <f t="shared" si="20"/>
-        <v>■</v>
+        <v/>
       </c>
       <c r="AB15" s="27" t="str">
         <f t="shared" si="20"/>
-        <v>■</v>
+        <v/>
       </c>
       <c r="AC15" s="27" t="str">
         <f t="shared" ref="AC15:AR36" si="21">IF(AND(AC$3&gt;=$H15,AC$3&lt;=$K15),IF(ISERROR(FIND(AC$4,"土日休")),"■","◇"),IF(AND(AC$3&gt;=$H15,AC$3&lt;=$L15),IF(ISERROR(FIND(AC$4,"土日休")),"□","□"),""))</f>
-        <v>■</v>
+        <v/>
       </c>
       <c r="AD15" s="27" t="str">
         <f t="shared" si="21"/>
-        <v>■</v>
+        <v/>
       </c>
       <c r="AE15" s="27" t="str">
         <f t="shared" si="21"/>
-        <v>■</v>
+        <v/>
       </c>
       <c r="AF15" s="27" t="str">
         <f t="shared" si="21"/>
@@ -6662,17 +6487,19 @@
       <c r="D16" s="17"/>
       <c r="E16" s="28"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="36"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="36">
+        <v>41653</v>
+      </c>
       <c r="I16" s="35"/>
       <c r="J16" s="42"/>
       <c r="K16" s="30">
         <f>IF(ISBLANK(H16),H16,IF(ISBLANK(I16),INT(H16-1+(I15-H15+1)*J16),I16))</f>
-        <v>0</v>
+        <v>41652</v>
       </c>
       <c r="L16" s="30">
         <f>IF(ISBLANK(H16),H16,IF(ISBLANK(I16),H16+I15-H15,I16))</f>
-        <v>0</v>
+        <v>41654</v>
       </c>
       <c r="M16" s="31" t="str">
         <f t="shared" si="20"/>
@@ -6708,11 +6535,11 @@
       </c>
       <c r="U16" s="32" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>□</v>
       </c>
       <c r="V16" s="32" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>□</v>
       </c>
       <c r="W16" s="32" t="str">
         <f t="shared" si="20"/>
@@ -6902,7 +6729,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="62" t="s">
         <v>36</v>
       </c>
       <c r="H17" s="37">
@@ -7147,7 +6974,7 @@
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="45"/>
-      <c r="G18" s="56"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="35"/>
       <c r="I18" s="38"/>
       <c r="J18" s="42"/>
@@ -7387,26 +7214,26 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="62" t="s">
         <v>35</v>
       </c>
       <c r="H19" s="37">
         <v>41653</v>
       </c>
       <c r="I19" s="34">
-        <v>41663</v>
+        <v>41656</v>
       </c>
       <c r="J19" s="43">
         <f>COUNTIF(M19:BN19,"■")</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K19" s="25">
         <f>IF(ISBLANK(H19),H19,IF(ISBLANK(I19),INT(H19-1+(#REF!-#REF!+1)*J19),I19))</f>
-        <v>41663</v>
+        <v>41656</v>
       </c>
       <c r="L19" s="25">
         <f>IF(ISBLANK(H19),H19,IF(ISBLANK(I19),H19+#REF!-#REF!,I19))</f>
-        <v>41663</v>
+        <v>41656</v>
       </c>
       <c r="M19" s="26" t="str">
         <f t="shared" si="20"/>
@@ -7458,31 +7285,31 @@
       </c>
       <c r="Y19" s="27" t="str">
         <f t="shared" si="20"/>
-        <v>◇</v>
+        <v/>
       </c>
       <c r="Z19" s="27" t="str">
         <f t="shared" si="20"/>
-        <v>◇</v>
+        <v/>
       </c>
       <c r="AA19" s="27" t="str">
         <f t="shared" si="20"/>
-        <v>■</v>
+        <v/>
       </c>
       <c r="AB19" s="27" t="str">
         <f t="shared" si="20"/>
-        <v>■</v>
+        <v/>
       </c>
       <c r="AC19" s="27" t="str">
         <f t="shared" si="21"/>
-        <v>■</v>
+        <v/>
       </c>
       <c r="AD19" s="27" t="str">
         <f t="shared" si="21"/>
-        <v>■</v>
+        <v/>
       </c>
       <c r="AE19" s="27" t="str">
         <f t="shared" si="21"/>
-        <v>■</v>
+        <v/>
       </c>
       <c r="AF19" s="27" t="str">
         <f t="shared" si="21"/>
@@ -7632,17 +7459,19 @@
       <c r="D20" s="17"/>
       <c r="E20" s="28"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="35"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="35">
+        <v>41653</v>
+      </c>
       <c r="I20" s="35"/>
       <c r="J20" s="42"/>
       <c r="K20" s="30">
         <f>IF(ISBLANK(H20),H20,IF(ISBLANK(I20),INT(H20-1+(I19-H19+1)*J20),I20))</f>
-        <v>0</v>
+        <v>41652</v>
       </c>
       <c r="L20" s="30">
         <f>IF(ISBLANK(H20),H20,IF(ISBLANK(I20),H20+I19-H19,I20))</f>
-        <v>0</v>
+        <v>41656</v>
       </c>
       <c r="M20" s="31" t="str">
         <f t="shared" si="20"/>
@@ -7678,19 +7507,19 @@
       </c>
       <c r="U20" s="32" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>□</v>
       </c>
       <c r="V20" s="32" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>□</v>
       </c>
       <c r="W20" s="32" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>□</v>
       </c>
       <c r="X20" s="32" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>□</v>
       </c>
       <c r="Y20" s="32" t="str">
         <f t="shared" si="20"/>
@@ -7872,7 +7701,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="62" t="s">
         <v>34</v>
       </c>
       <c r="H21" s="37">
@@ -8117,7 +7946,7 @@
       <c r="D22" s="17"/>
       <c r="E22" s="28"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="56"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
       <c r="J22" s="42"/>
@@ -8357,7 +8186,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="24"/>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="62" t="s">
         <v>34</v>
       </c>
       <c r="H23" s="37">
@@ -8602,7 +8431,7 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="45"/>
-      <c r="G24" s="56"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="35"/>
       <c r="I24" s="38"/>
       <c r="J24" s="42"/>
@@ -8842,7 +8671,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="62" t="s">
         <v>34</v>
       </c>
       <c r="H25" s="37">
@@ -9087,7 +8916,7 @@
       <c r="D26" s="17"/>
       <c r="E26" s="28"/>
       <c r="F26" s="29"/>
-      <c r="G26" s="56"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="36"/>
       <c r="I26" s="35"/>
       <c r="J26" s="42"/>
@@ -9327,7 +9156,9 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="55"/>
+      <c r="G27" s="62" t="s">
+        <v>60</v>
+      </c>
       <c r="H27" s="37">
         <v>41653</v>
       </c>
@@ -9570,7 +9401,7 @@
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="56"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="35"/>
       <c r="I28" s="38"/>
       <c r="J28" s="42"/>
@@ -9810,7 +9641,9 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="55"/>
+      <c r="G29" s="62" t="s">
+        <v>59</v>
+      </c>
       <c r="H29" s="37">
         <v>41653</v>
       </c>
@@ -10048,14 +9881,14 @@
     </row>
     <row r="30" spans="1:66" ht="17.25" customHeight="1">
       <c r="A30" s="15"/>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="56"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
       <c r="J30" s="42"/>
@@ -10295,7 +10128,9 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="24"/>
-      <c r="G31" s="55"/>
+      <c r="G31" s="62" t="s">
+        <v>59</v>
+      </c>
       <c r="H31" s="37">
         <v>41653</v>
       </c>
@@ -10538,7 +10373,7 @@
       <c r="D32" s="17"/>
       <c r="E32" s="28"/>
       <c r="F32" s="29"/>
-      <c r="G32" s="56"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
       <c r="J32" s="42"/>
@@ -10778,7 +10613,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="24"/>
-      <c r="G33" s="55" t="s">
+      <c r="G33" s="62" t="s">
         <v>52</v>
       </c>
       <c r="H33" s="37">
@@ -11023,7 +10858,7 @@
       <c r="D34" s="17"/>
       <c r="E34" s="28"/>
       <c r="F34" s="29"/>
-      <c r="G34" s="56"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="42"/>
@@ -11263,7 +11098,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="24"/>
-      <c r="G35" s="55" t="s">
+      <c r="G35" s="62" t="s">
         <v>53</v>
       </c>
       <c r="H35" s="37">
@@ -11508,7 +11343,7 @@
       <c r="D36" s="17"/>
       <c r="E36" s="28"/>
       <c r="F36" s="29"/>
-      <c r="G36" s="56"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
       <c r="J36" s="42"/>
@@ -11748,7 +11583,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="24"/>
-      <c r="G37" s="55"/>
+      <c r="G37" s="62"/>
       <c r="H37" s="37">
         <v>41653</v>
       </c>
@@ -11993,7 +11828,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="28"/>
       <c r="F38" s="29"/>
-      <c r="G38" s="56"/>
+      <c r="G38" s="63"/>
       <c r="H38" s="36"/>
       <c r="I38" s="35"/>
       <c r="J38" s="42"/>
@@ -12233,7 +12068,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="55" t="s">
+      <c r="G39" s="62" t="s">
         <v>56</v>
       </c>
       <c r="H39" s="37"/>
@@ -12474,7 +12309,7 @@
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="45"/>
-      <c r="G40" s="56"/>
+      <c r="G40" s="63"/>
       <c r="H40" s="35"/>
       <c r="I40" s="38"/>
       <c r="J40" s="42"/>
@@ -12714,7 +12549,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="55" t="s">
+      <c r="G41" s="62" t="s">
         <v>56</v>
       </c>
       <c r="H41" s="34"/>
@@ -12955,7 +12790,7 @@
       <c r="D42" s="17"/>
       <c r="E42" s="28"/>
       <c r="F42" s="29"/>
-      <c r="G42" s="56"/>
+      <c r="G42" s="63"/>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
       <c r="J42" s="42"/>
@@ -13195,10 +13030,10 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="24"/>
-      <c r="G43" s="55"/>
+      <c r="G43" s="62"/>
       <c r="H43" s="37"/>
       <c r="I43" s="37"/>
-      <c r="J43" s="65">
+      <c r="J43" s="55">
         <f>COUNTIF(M43:BN43,"■")</f>
         <v>0</v>
       </c>
@@ -13435,8 +13270,8 @@
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="63"/>
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
       <c r="J44" s="42"/>
@@ -13668,150 +13503,150 @@
   </sheetData>
   <autoFilter ref="A4:J44"/>
   <mergeCells count="24">
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G23:G24"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G43:G44"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="M25:HJ30 M5:HJ10 M13:HJ22">
-    <cfRule type="expression" dxfId="65" priority="426" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="426" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="612" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="612" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="613" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="613" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:G9 A27:D28 F27:G27 A10:F10 H10:J10 F28 H28:J28 A14:F14 H14:J14 A13:G13 J9 J13 J27">
-    <cfRule type="expression" dxfId="62" priority="663" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="663" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:HJ2">
-    <cfRule type="cellIs" dxfId="61" priority="659" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="659" stopIfTrue="1" operator="between">
       <formula>1</formula>
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:HJ4">
-    <cfRule type="cellIs" dxfId="60" priority="660" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="660" stopIfTrue="1" operator="equal">
       <formula>"土"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="661" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="661" stopIfTrue="1" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="662" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="662" stopIfTrue="1" operator="equal">
       <formula>"休"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:BN3">
-    <cfRule type="cellIs" dxfId="57" priority="427" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="427" stopIfTrue="1" operator="equal">
       <formula>$I$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E28">
-    <cfRule type="expression" dxfId="56" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="169" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:G29 A17:D18 F17:G17 A30:B30 H30:J30 F18 H18:J18 A16:F16 H16:J16 A15:G15 J15 J17 J29">
-    <cfRule type="expression" dxfId="55" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="62" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="58" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:HJ24">
-    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="54" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="55" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="56" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:G21 A23:D24 F23:G23 A22:F22 H22:J22 F24 H24:J24 A20:F20 H20:J20 A19:G19 J19 J21 J23">
-    <cfRule type="expression" dxfId="50" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="57" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E24">
-    <cfRule type="expression" dxfId="49" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="53" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:D6 F5:J5 A8:F8 H8:J8 F6 H6:J6 A26:F26 H26:J26 A25:G25 A7:J7 J25">
-    <cfRule type="expression" dxfId="48" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="52" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E6">
-    <cfRule type="expression" dxfId="47" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="48" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31:HJ32 M37:HJ40">
-    <cfRule type="expression" dxfId="46" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="44" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="45" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="46" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:G31 A39:D40 F39:J39 A32:F32 H32:J32 F40 H40:J40 A38:F38 H38:J38 A37:G37 J31 J37">
-    <cfRule type="expression" dxfId="43" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="47" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E40">
-    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="43" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:HJ44">
-    <cfRule type="expression" dxfId="41" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="39" stopIfTrue="1">
       <formula>INDIRECT(ADDRESS(3,COLUMN()))=$I$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="40" stopIfTrue="1">
       <formula>IF(ISERROR(FIND(M$4,"土日休")),FALSE,TRUE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="41" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:J41 A42:F42 H42:J42 A44:F44 H44:J44 A43:J43">
-    <cfRule type="expression" dxfId="38" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="42" stopIfTrue="1">
       <formula>MOD(INT((ROW()+1)/2),2)</formula>
     </cfRule>
   </conditionalFormatting>
